--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema3c</t>
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H2">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I2">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J2">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N2">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O2">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P2">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q2">
-        <v>21.18333826048</v>
+        <v>84.27023225216632</v>
       </c>
       <c r="R2">
-        <v>190.65004434432</v>
+        <v>758.4320902694969</v>
       </c>
       <c r="S2">
-        <v>0.003769235800274142</v>
+        <v>0.009851475517838042</v>
       </c>
       <c r="T2">
-        <v>0.003769235800274143</v>
+        <v>0.009851475517838043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H3">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I3">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J3">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.515912</v>
       </c>
       <c r="O3">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P3">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q3">
-        <v>5.729200266982223</v>
+        <v>13.41317754647733</v>
       </c>
       <c r="R3">
-        <v>51.56280240284</v>
+        <v>120.718597918296</v>
       </c>
       <c r="S3">
-        <v>0.001019419436526537</v>
+        <v>0.001568045876747177</v>
       </c>
       <c r="T3">
-        <v>0.001019419436526537</v>
+        <v>0.001568045876747177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H4">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I4">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J4">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N4">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O4">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P4">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q4">
-        <v>5.776316446816667</v>
+        <v>21.65093995293133</v>
       </c>
       <c r="R4">
-        <v>51.98684802134999</v>
+        <v>194.858459576382</v>
       </c>
       <c r="S4">
-        <v>0.001027803006180215</v>
+        <v>0.002531068197916369</v>
       </c>
       <c r="T4">
-        <v>0.001027803006180215</v>
+        <v>0.00253106819791637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2583983333333333</v>
+        <v>0.604961</v>
       </c>
       <c r="H5">
-        <v>0.775195</v>
+        <v>1.814883</v>
       </c>
       <c r="I5">
-        <v>0.007195239230717037</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="J5">
-        <v>0.007195239230717038</v>
+        <v>0.0160517527720356</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.98794266666667</v>
+        <v>29.710182</v>
       </c>
       <c r="N5">
-        <v>89.96382800000001</v>
+        <v>89.13054600000001</v>
       </c>
       <c r="O5">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="P5">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="Q5">
-        <v>7.748834405162223</v>
+        <v>17.973501412902</v>
       </c>
       <c r="R5">
-        <v>69.73950964646001</v>
+        <v>161.761512716118</v>
       </c>
       <c r="S5">
-        <v>0.001378780987736143</v>
+        <v>0.002101163179534013</v>
       </c>
       <c r="T5">
-        <v>0.001378780987736143</v>
+        <v>0.002101163179534013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>105.316277</v>
       </c>
       <c r="I6">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J6">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N6">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O6">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P6">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q6">
-        <v>2877.921452054528</v>
+        <v>4890.137338177438</v>
       </c>
       <c r="R6">
-        <v>25901.29306849075</v>
+        <v>44011.23604359694</v>
       </c>
       <c r="S6">
-        <v>0.5120800335657328</v>
+        <v>0.5716736144949013</v>
       </c>
       <c r="T6">
-        <v>0.5120800335657328</v>
+        <v>0.5716736144949013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>105.316277</v>
       </c>
       <c r="I7">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J7">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>66.515912</v>
       </c>
       <c r="O7">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P7">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q7">
         <v>778.3564681221804</v>
@@ -883,10 +883,10 @@
         <v>7005.208213099624</v>
       </c>
       <c r="S7">
-        <v>0.1384960684168664</v>
+        <v>0.0909925069022155</v>
       </c>
       <c r="T7">
-        <v>0.1384960684168664</v>
+        <v>0.0909925069022155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>105.316277</v>
       </c>
       <c r="I8">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J8">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N8">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O8">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P8">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q8">
-        <v>784.7575680346233</v>
+        <v>1256.38754090114</v>
       </c>
       <c r="R8">
-        <v>7062.818112311609</v>
+        <v>11307.48786811026</v>
       </c>
       <c r="S8">
-        <v>0.1396350416350831</v>
+        <v>0.1468759580852601</v>
       </c>
       <c r="T8">
-        <v>0.1396350416350831</v>
+        <v>0.1468759580852602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>105.316277</v>
       </c>
       <c r="I9">
-        <v>0.9775292770250872</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="J9">
-        <v>0.9775292770250873</v>
+        <v>0.9314709770686151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.98794266666667</v>
+        <v>29.710182</v>
       </c>
       <c r="N9">
-        <v>89.96382800000001</v>
+        <v>89.13054600000001</v>
       </c>
       <c r="O9">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="P9">
-        <v>0.1916240646801595</v>
+        <v>0.1308992986232963</v>
       </c>
       <c r="Q9">
-        <v>1052.739492180929</v>
+        <v>1042.988585744138</v>
       </c>
       <c r="R9">
-        <v>9474.655429628358</v>
+        <v>9386.897271697242</v>
       </c>
       <c r="S9">
-        <v>0.1873181334074049</v>
+        <v>0.1219288975862383</v>
       </c>
       <c r="T9">
-        <v>0.1873181334074049</v>
+        <v>0.1219288975862383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H10">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I10">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J10">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.979392</v>
+        <v>139.2986196666667</v>
       </c>
       <c r="N10">
-        <v>245.938176</v>
+        <v>417.895859</v>
       </c>
       <c r="O10">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="P10">
-        <v>0.523851352180617</v>
+        <v>0.6137320738580456</v>
       </c>
       <c r="Q10">
-        <v>44.972200210432</v>
+        <v>272.7989342897083</v>
       </c>
       <c r="R10">
-        <v>404.749801893888</v>
+        <v>2455.190408607375</v>
       </c>
       <c r="S10">
-        <v>0.008002082814609958</v>
+        <v>0.03189111920809123</v>
       </c>
       <c r="T10">
-        <v>0.008002082814609958</v>
+        <v>0.03189111920809123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H11">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I11">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J11">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>66.515912</v>
       </c>
       <c r="O11">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="P11">
-        <v>0.1416797140218155</v>
+        <v>0.09768689432339951</v>
       </c>
       <c r="Q11">
-        <v>12.16308488700622</v>
+        <v>43.42103305433334</v>
       </c>
       <c r="R11">
-        <v>109.467763983056</v>
+        <v>390.789297489</v>
       </c>
       <c r="S11">
-        <v>0.00216422616842254</v>
+        <v>0.005076065802381893</v>
       </c>
       <c r="T11">
-        <v>0.00216422616842254</v>
+        <v>0.005076065802381894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5485793333333333</v>
+        <v>1.958375</v>
       </c>
       <c r="H12">
-        <v>1.645738</v>
+        <v>5.875125</v>
       </c>
       <c r="I12">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057782</v>
       </c>
       <c r="J12">
-        <v>0.01527548374419571</v>
+        <v>0.05196260806057783</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.35431</v>
+        <v>35.78898466666666</v>
       </c>
       <c r="N12">
-        <v>67.06292999999999</v>
+        <v>107.366954</v>
       </c>
       <c r="O12">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="P12">
-        <v>0.142844869117408</v>
+        <v>0.1576817331952585</v>
       </c>
       <c r="Q12">
-        <v>12.26311247692666</v>
+        <v>70.08825284658333</v>
       </c>
       <c r="R12">
-        <v>110.36801229234</v>
+        <v>630.7942756192499</v>
       </c>
       <c r="S12">
-        <v>0.00218202447614473</v>
+        <v>0.008193554100337822</v>
       </c>
       <c r="T12">
-        <v>0.002182024476144731</v>
+        <v>0.008193554100337824</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.958375</v>
+      </c>
+      <c r="H13">
+        <v>5.875125</v>
+      </c>
+      <c r="I13">
+        <v>0.05196260806057782</v>
+      </c>
+      <c r="J13">
+        <v>0.05196260806057783</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.710182</v>
+      </c>
+      <c r="N13">
+        <v>89.13054600000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1308992986232963</v>
+      </c>
+      <c r="P13">
+        <v>0.1308992986232963</v>
+      </c>
+      <c r="Q13">
+        <v>58.18367767425001</v>
+      </c>
+      <c r="R13">
+        <v>523.6530990682501</v>
+      </c>
+      <c r="S13">
+        <v>0.006801868949766881</v>
+      </c>
+      <c r="T13">
+        <v>0.006801868949766882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5485793333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.645738</v>
-      </c>
-      <c r="I13">
-        <v>0.01527548374419571</v>
-      </c>
-      <c r="J13">
-        <v>0.01527548374419571</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>29.98794266666667</v>
-      </c>
-      <c r="N13">
-        <v>89.96382800000001</v>
-      </c>
-      <c r="O13">
-        <v>0.1916240646801595</v>
-      </c>
-      <c r="P13">
-        <v>0.1916240646801595</v>
-      </c>
-      <c r="Q13">
-        <v>16.45076559611822</v>
-      </c>
-      <c r="R13">
-        <v>148.056890365064</v>
-      </c>
-      <c r="S13">
-        <v>0.002927150285018484</v>
-      </c>
-      <c r="T13">
-        <v>0.002927150285018484</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.05819</v>
+      </c>
+      <c r="I14">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J14">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>139.2986196666667</v>
+      </c>
+      <c r="N14">
+        <v>417.895859</v>
+      </c>
+      <c r="O14">
+        <v>0.6137320738580456</v>
+      </c>
+      <c r="P14">
+        <v>0.6137320738580456</v>
+      </c>
+      <c r="Q14">
+        <v>2.701928892801111</v>
+      </c>
+      <c r="R14">
+        <v>24.31736003521</v>
+      </c>
+      <c r="S14">
+        <v>0.000315864637215179</v>
+      </c>
+      <c r="T14">
+        <v>0.000315864637215179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.05819</v>
+      </c>
+      <c r="I15">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J15">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.17197066666667</v>
+      </c>
+      <c r="N15">
+        <v>66.515912</v>
+      </c>
+      <c r="O15">
+        <v>0.09768689432339951</v>
+      </c>
+      <c r="P15">
+        <v>0.09768689432339951</v>
+      </c>
+      <c r="Q15">
+        <v>0.4300623243644444</v>
+      </c>
+      <c r="R15">
+        <v>3.87056091928</v>
+      </c>
+      <c r="S15">
+        <v>5.027574205495243E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.027574205495243E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.05819</v>
+      </c>
+      <c r="I16">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J16">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>35.78898466666666</v>
+      </c>
+      <c r="N16">
+        <v>107.366954</v>
+      </c>
+      <c r="O16">
+        <v>0.1576817331952585</v>
+      </c>
+      <c r="P16">
+        <v>0.1576817331952585</v>
+      </c>
+      <c r="Q16">
+        <v>0.6941870059177777</v>
+      </c>
+      <c r="R16">
+        <v>6.247683053259999</v>
+      </c>
+      <c r="S16">
+        <v>8.115281174420253E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.115281174420255E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.05819</v>
+      </c>
+      <c r="I17">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="J17">
+        <v>0.0005146620987715195</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.710182</v>
+      </c>
+      <c r="N17">
+        <v>89.13054600000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1308992986232963</v>
+      </c>
+      <c r="P17">
+        <v>0.1308992986232963</v>
+      </c>
+      <c r="Q17">
+        <v>0.5762784968600001</v>
+      </c>
+      <c r="R17">
+        <v>5.18650647174</v>
+      </c>
+      <c r="S17">
+        <v>6.736890775718556E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.736890775718556E-05</v>
       </c>
     </row>
   </sheetData>
